--- a/Data/login.xlsx
+++ b/Data/login.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koush\eclipse-workspace\PageObjectModel4\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65574B30-4282-4A0D-9F27-7572514A12B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FA954F-7EE9-4A31-9A3E-997B8821CD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{917F24CA-AD29-4886-A7C1-4A3CE0972576}"/>
+    <workbookView xWindow="12984" yWindow="1380" windowWidth="8652" windowHeight="7716" activeTab="2" xr2:uid="{917F24CA-AD29-4886-A7C1-4A3CE0972576}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>veglist</t>
   </si>
@@ -57,6 +59,48 @@
   </si>
   <si>
     <t>Mango - 1 Kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username </t>
+  </si>
+  <si>
+    <t>passwrod</t>
+  </si>
+  <si>
+    <t>standard_user</t>
+  </si>
+  <si>
+    <t>locked_out_user</t>
+  </si>
+  <si>
+    <t>problem_user</t>
+  </si>
+  <si>
+    <t>performance_glitch_user</t>
+  </si>
+  <si>
+    <t>error_user</t>
+  </si>
+  <si>
+    <t>visual_user</t>
+  </si>
+  <si>
+    <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>https://www.saucedemo.com/inventory.html</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S23 Ultra</t>
+  </si>
+  <si>
+    <t>Google Pixel 8 Pro</t>
   </si>
 </sst>
 </file>
@@ -430,11 +474,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C542D2-1EE5-4641-AF4E-627972F3841E}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -469,4 +516,134 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A111F7A-5316-4119-97FF-AF4AC97C5CEE}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587A653D-CCB4-4447-AB29-E26D52849B28}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>